--- a/Data/Benign Failed Installation-iir.xlsx
+++ b/Data/Benign Failed Installation-iir.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boxiang\Desktop\GithubRepo\REU-Android-Spring2022\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boxiang\Desktop\REU-Android-Spring2022\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982BA081-6B46-43B7-962B-643711B3B783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE29BF5-CCB6-44E6-A571-A7B7DF14B5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -2486,7 +2486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB394EC5-EEAA-4F83-8323-EEB0E669672F}">
   <dimension ref="C2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
@@ -2865,8 +2865,8 @@
   </sheetPr>
   <dimension ref="A1:Z946"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
